--- a/jpcore-r4/feature/swg5-set_ValueSets2maxDoses/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-set_ValueSets2maxDoses/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11634" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11629" uniqueCount="1251">
   <si>
     <t>Property</t>
   </si>
@@ -28075,28 +28075,26 @@
         <v>80</v>
       </c>
       <c r="R209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X209" s="2"/>
+      <c r="Y209" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X209" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y209" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -28997,28 +28995,26 @@
         <v>80</v>
       </c>
       <c r="R217" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S217" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X217" s="2"/>
+      <c r="Y217" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y217" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>80</v>
@@ -29921,28 +29917,26 @@
         <v>80</v>
       </c>
       <c r="R225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X225" s="2"/>
+      <c r="Y225" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>80</v>
@@ -30845,28 +30839,26 @@
         <v>80</v>
       </c>
       <c r="R233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X233" s="2"/>
+      <c r="Y233" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>80</v>
@@ -33919,28 +33911,26 @@
         <v>80</v>
       </c>
       <c r="R260" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S260" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T260" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U260" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V260" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W260" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X260" s="2"/>
+      <c r="Y260" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="S260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X260" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y260" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>80</v>
